--- a/biology/Histoire de la zoologie et de la botanique/Jules_Pizzetta/Jules_Pizzetta.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_Pizzetta/Jules_Pizzetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Pizzetta (né à Londres le 20 juillet 1820 et mort à Boulogne-Billancourt le 4 février 1900[1],[2]) est un naturaliste et vulgarisateur français. Il a pour pseudonyme J.-P. Houzé [3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Pizzetta (né à Londres le 20 juillet 1820 et mort à Boulogne-Billancourt le 4 février 1900,) est un naturaliste et vulgarisateur français. Il a pour pseudonyme J.-P. Houzé .
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Science
-Quinze jours au bord de la mer : flâneries d'un naturaliste (1845), Paris, Dupray de la Mahérie
+          <t>Science</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Quinze jours au bord de la mer : flâneries d'un naturaliste (1845), Paris, Dupray de la Mahérie
 (avec Louis Barré) Encyclopédie nationale des sciences, des lettres et des arts (1851), 4 vol., Paris, J. Bry
 En ligne : vol. 1 ; vol. 2 ; vol. 3 ; vol. 4
 Dictionnaire populaire d'histoire naturelle et des phénomènes de la nature (1857), J. Martinon
@@ -540,9 +557,43 @@
 Plantes et bêtes, causeries familières sur l'histoire naturelle (1894), Paris, A. Hennuyer
 Boulogne et Calais : la baie de Somme : les étapes d'un touriste en France (1897)
 Reproduction : Paris, le Livre d'histoire (2001)
-Extrait : Promenades en baie de Somme (2005), la Découvrance éd.  (ISBN 2-84265-369-6)
-Livret
-Pauvre Venise !, paroles de Jules Pizzetta, musique de Mlle Émilie Pizzetta</t>
+Extrait : Promenades en baie de Somme (2005), la Découvrance éd.  (ISBN 2-84265-369-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jules_Pizzetta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jules_Pizzetta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livret</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pauvre Venise !, paroles de Jules Pizzetta, musique de Mlle Émilie Pizzetta</t>
         </is>
       </c>
     </row>
